--- a/example_data/EMA/label_corrected/brintellix-epar-product-information_en.xlsx
+++ b/example_data/EMA/label_corrected/brintellix-epar-product-information_en.xlsx
@@ -1388,7 +1388,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>populations - adolescent || populations - pediatric || warnings</t>
+          <t>populations - adolescent || warnings || populations - pediatric</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3866,7 +3866,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>populations - adult || populations - geriatric</t>
+          <t>populations - geriatric || populations - adult</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>populations - adult || populations - geriatric</t>
+          <t>populations - geriatric || populations - adult</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -4222,7 +4222,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>populations - adult || populations - geriatric</t>
+          <t>populations - geriatric || populations - adult</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>populations - adult || populations - geriatric</t>
+          <t>populations - geriatric || populations - adult</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -7516,7 +7516,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>populations - adolescent || populations - pediatric || warnings</t>
+          <t>populations - adolescent || warnings || populations - pediatric</t>
         </is>
       </c>
       <c r="I197" t="inlineStr"/>
@@ -10100,7 +10100,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>populations - adult || populations - geriatric</t>
+          <t>populations - geriatric || populations - adult</t>
         </is>
       </c>
       <c r="I265" t="inlineStr"/>
@@ -10382,7 +10382,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>populations - adult || populations - geriatric</t>
+          <t>populations - geriatric || populations - adult</t>
         </is>
       </c>
       <c r="I272" t="inlineStr"/>
@@ -10424,7 +10424,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>populations - adult || populations - geriatric</t>
+          <t>populations - geriatric || populations - adult</t>
         </is>
       </c>
       <c r="I273" t="inlineStr"/>
@@ -10471,7 +10471,7 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>populations - adult || populations - geriatric</t>
+          <t>populations - geriatric || populations - adult</t>
         </is>
       </c>
       <c r="I274" t="inlineStr"/>
